--- a/core/utils/cadendereco.xlsx
+++ b/core/utils/cadendereco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C3DF00-4045-44C7-8D97-BC8355CA4769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC50366-BC37-4896-9057-FBD5F4E9A0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="88">
   <si>
     <t>ESCOLA</t>
   </si>
@@ -75,1210 +75,220 @@
     <t>SANTOS</t>
   </si>
   <si>
-    <t>ANIZIO BENTO</t>
+    <t>120</t>
   </si>
   <si>
-    <t>AYRTON SENNA DA SILVA</t>
+    <t>UME - CRECHE ÁGAPE</t>
   </si>
   <si>
-    <t>BARAO DO RIO BRANCO</t>
+    <t>122</t>
   </si>
   <si>
-    <t>CANDINHA RIBEIRO DE MENDONCA</t>
+    <t>UME - CRECHE COMUNITÁRIA AMIGOS - MORRO</t>
   </si>
   <si>
-    <t>CIDADE DE SANTOS</t>
+    <t>123</t>
   </si>
   <si>
-    <t>CLAUDIA HELENA DOS SANTOS OLIVEIRA CORREA</t>
+    <t>UME - CRECHE COMUNITÁRIA AMIGOS II - ZN</t>
   </si>
   <si>
-    <t>CLOVIS BANDEIRA BRASIL GENERAL</t>
+    <t>124</t>
   </si>
   <si>
-    <t>COLEGIO SANTISTA</t>
+    <t>UME - EDUCANDÁRIO ANÁLIA FRANCO</t>
   </si>
   <si>
-    <t>CYRO DE ATHAYDE CARNEIRO</t>
+    <t>125</t>
   </si>
   <si>
-    <t>DEROSSE JOSE DE OLIVEIRA</t>
+    <t>UME - CRECHE UNIÃO ANCILLA DOMINI</t>
   </si>
   <si>
-    <t>DOS ANDRADAS II</t>
+    <t>126</t>
   </si>
   <si>
-    <t>DOS ANDRADAS</t>
+    <t>UME - CRECHE ARCANJO RAFAEL - UN. I - EMBARÉ</t>
   </si>
   <si>
-    <t>EDMEA LADEVIG</t>
+    <t>127</t>
   </si>
   <si>
-    <t>ELSA VIRTUOSO</t>
+    <t>UME - CRECHE ARCANJO RAFAEL - UN. II - CHICO DE PAULA</t>
   </si>
   <si>
-    <t>ESMERALDO TARQUINIO PREFEITO</t>
+    <t>128</t>
   </si>
   <si>
-    <t>EUNICE CALDAS</t>
+    <t>UME - CRECHE ARCANJO RAFAEL - UN.III - MARAPÉ</t>
   </si>
   <si>
-    <t>FLAVIO CIPRIANO BARBOSA</t>
+    <t>129</t>
   </si>
   <si>
-    <t>FRANCISCO LEITE PADRE</t>
+    <t>UME - CRECHE ARCANJO RAFAEL - UN. IV - CASTELO</t>
   </si>
   <si>
-    <t>GEMMA REBELLO</t>
+    <t>130</t>
   </si>
   <si>
-    <t>GOTA DE LEITE</t>
+    <t>UME - CRECHE ARCANJO RAFAEL - UN. V - MARAPÉ II</t>
   </si>
   <si>
-    <t>HILDA D'ONOFRIO PAPA</t>
+    <t>131</t>
   </si>
   <si>
-    <t>HILDA RABACA</t>
+    <t>UME - CTO SOCIAL E EDUC.CANTINHO ALEGRE</t>
   </si>
   <si>
-    <t>ILHA DIANA</t>
+    <t>132</t>
   </si>
   <si>
-    <t>JOAO IGNACIO DE SOUZA VEREADOR</t>
+    <t>UME - CRECHE COMUNITÁRIA CANTINHO DO RÁDIO CLUBE</t>
   </si>
   <si>
-    <t>JOAO WALTER SAMPAIO SMOLKA</t>
+    <t>133</t>
   </si>
   <si>
-    <t>JOSE BONIFACIO</t>
+    <t>UME - TREZE DE MAIO - CASA DA CRIANÇA STOS</t>
   </si>
   <si>
-    <t>JOSE DA COSTA BARBOSA</t>
+    <t>134</t>
   </si>
   <si>
-    <t>JOSE GENESIO IRMAO</t>
+    <t>UME - CRECHE E PRÉ-ESCOLA CASA DE ESTAR</t>
   </si>
   <si>
-    <t>LAURIVAL RODRIGUES</t>
+    <t>135</t>
   </si>
   <si>
-    <t>LEONARDO NUNES PADRE</t>
+    <t>UME - CASA MÁGICA</t>
   </si>
   <si>
-    <t>LEONOR MENDES DE BARROS</t>
+    <t>136</t>
   </si>
   <si>
-    <t>LOURDES ORTIZ</t>
+    <t>UME - CR.E ESC.Nª SENH.DA DIVINA PROVIDÊNCIA</t>
   </si>
   <si>
-    <t>LUCIO FLORO PADRE</t>
+    <t>137</t>
   </si>
   <si>
-    <t>LUIZ ALCA DE SANTANA</t>
+    <t>UME - EDUC. SANTISTA - ESC.EDUC.INF.</t>
   </si>
   <si>
-    <t>LUIZ CARLOS PRESTES</t>
+    <t>138</t>
   </si>
   <si>
-    <t>LYDIA FEDERICI</t>
+    <t>UME - ESCOLA PORTUGUESA EDUCAÇÃO INFANTIL</t>
   </si>
   <si>
-    <t>MARIA DOLORES IRMA</t>
+    <t>139</t>
   </si>
   <si>
-    <t>MARIA LUCIA PRANDI</t>
+    <t>UME - NÚCLEO EDUC. E RI GENTE MIÚDA</t>
   </si>
   <si>
-    <t>MARIA LUIZA ALONSO SILVA</t>
+    <t>140</t>
   </si>
   <si>
-    <t>MARIA LUIZA SIMOES RIBEIRO</t>
+    <t>UME - GOTA DE LEITE</t>
   </si>
   <si>
-    <t>MARIA PATRICIA</t>
+    <t>141</t>
   </si>
   <si>
-    <t>MARTINS FONTES</t>
+    <t>UME - CRECHE LAR ESCOLA IRMÃ SCHEILLA</t>
   </si>
   <si>
-    <t>MONTE CABRAO</t>
+    <t>142</t>
   </si>
   <si>
-    <t>NOEL GOMES FERREIRA</t>
+    <t>UME - CRECHE ISMÊNIA DE JESUS</t>
   </si>
   <si>
-    <t>OLAVO BILAC</t>
+    <t>143</t>
   </si>
   <si>
-    <t>OLIVIA FERNANDES</t>
+    <t>UME - CRECHE E PRÉ-ESCOLA LAR E FELICIDADE</t>
   </si>
   <si>
-    <t>OSWALDO JUSTO</t>
+    <t>144</t>
   </si>
   <si>
-    <t>PEDRO II</t>
+    <t>UME - CRECHE E PRÉ-ESCOLA LAR FELIZ</t>
   </si>
   <si>
-    <t>PREFEITO PAULO GOMES BARBOSA</t>
+    <t>145</t>
   </si>
   <si>
-    <t>REGINA ALTMAN</t>
+    <t>UME - CRECHE MARIA IGNEZ BARBOSA - PAGOBA</t>
   </si>
   <si>
-    <t>RICARDO SAMPAIO CARDOSO JUDOCA</t>
+    <t>146</t>
   </si>
   <si>
-    <t>RUBENS LARA DEPUTADO</t>
+    <t>UME - SOCIEDADE FILANTRÓPICA DAMASCO</t>
   </si>
   <si>
-    <t>SANDRA CRISTINA TEIXEIRA DA GAMA</t>
+    <t>147</t>
   </si>
   <si>
-    <t>TEREZINHA MARIA CALCADA BASTOS</t>
+    <t>UME - CRECHE LAR ESCOLA MARIA MÁXIMO</t>
   </si>
   <si>
-    <t>THEREZINHA DE JESUS SIQUEIRA PIMENTEL</t>
+    <t>148</t>
   </si>
   <si>
-    <t>VINTE E OITO DE FEVEREIRO</t>
+    <t>UME - EMEENE DE SANTOS  MUNDO NOVO</t>
   </si>
   <si>
-    <t>WALDEMAR VALLE MARTINS PADRE</t>
+    <t>149</t>
   </si>
   <si>
-    <t>YARA NASCIMENTO SANTINI</t>
+    <t>UME - CTO CONV.ED.INF.Nª SRª DO CARMO</t>
   </si>
   <si>
-    <t>S/N.º</t>
+    <t>150</t>
   </si>
   <si>
-    <t>*</t>
+    <t>UME - CRECHE ESPÍRITA PADRE BENTO</t>
   </si>
   <si>
-    <t>Marapé</t>
+    <t>151</t>
   </si>
   <si>
-    <t>Areia Branca</t>
+    <t>UME - CRECHE PADRE LÚCIO FLORO</t>
   </si>
   <si>
-    <t>Macuco</t>
+    <t>152</t>
   </si>
   <si>
-    <t>Boqueirão</t>
+    <t>UME - CRECHE SÃO JORGE ESC. EDUC. INFANTIL</t>
   </si>
   <si>
-    <t>Estuário</t>
+    <t>153</t>
   </si>
   <si>
-    <t>Vila Nova</t>
+    <t>UME - INST.ED. INF. SÃO JOSÉ  (SAGRADA FAMÍLIA)</t>
   </si>
   <si>
-    <t>Campo Grande</t>
+    <t>154</t>
   </si>
   <si>
-    <t>Jabaquara</t>
+    <t>UME - Nª SRª DAS GRAÇAS  (SAGRADA FAMÍLIA)</t>
   </si>
   <si>
-    <t>Rádio Clube</t>
+    <t>155</t>
   </si>
   <si>
-    <t>Embaré</t>
+    <t>UME - CRECHE SONHO DE CRIANÇA - CECAJAS</t>
   </si>
   <si>
-    <t>Bom Retiro</t>
+    <t>156</t>
   </si>
   <si>
-    <t>Morro Nova Cintra</t>
-  </si>
-  <si>
-    <t>Encruzilhada</t>
-  </si>
-  <si>
-    <t>Ponta da Praia</t>
-  </si>
-  <si>
-    <t>Aparecida</t>
-  </si>
-  <si>
-    <t>Gonzaga</t>
-  </si>
-  <si>
-    <t>Vila Belmiro</t>
-  </si>
-  <si>
-    <t>Vila Mathias</t>
-  </si>
-  <si>
-    <t>São Jorge</t>
-  </si>
-  <si>
-    <t>São Manoel</t>
-  </si>
-  <si>
-    <t>Vila Haddad</t>
-  </si>
-  <si>
-    <t>Piratininga</t>
-  </si>
-  <si>
-    <t>Morro José</t>
-  </si>
-  <si>
-    <t>Morro José Menino</t>
-  </si>
-  <si>
-    <t>Morro São Bento</t>
-  </si>
-  <si>
-    <t>Castelo</t>
-  </si>
-  <si>
-    <t>Saboó</t>
-  </si>
-  <si>
-    <t>Chinês</t>
-  </si>
-  <si>
-    <t>Morro Penha</t>
-  </si>
-  <si>
-    <t>Monte Cabrão</t>
-  </si>
-  <si>
-    <t>Caruara</t>
-  </si>
-  <si>
-    <t>Vila Pro- gresso</t>
-  </si>
-  <si>
-    <t>11075-000</t>
-  </si>
-  <si>
-    <t>11086-400</t>
-  </si>
-  <si>
-    <t>11015-201</t>
-  </si>
-  <si>
-    <t>11055-904</t>
-  </si>
-  <si>
-    <t>11020-100</t>
-  </si>
-  <si>
-    <t>11013-350</t>
-  </si>
-  <si>
-    <t>11075-002</t>
-  </si>
-  <si>
-    <t>11075-701</t>
-  </si>
-  <si>
-    <t>11013-550</t>
-  </si>
-  <si>
-    <t>11088-190</t>
-  </si>
-  <si>
-    <t>11015-210</t>
-  </si>
-  <si>
-    <t>11089-220</t>
-  </si>
-  <si>
-    <t>11090-020</t>
-  </si>
-  <si>
-    <t>11080-000</t>
-  </si>
-  <si>
-    <t>11045-003</t>
-  </si>
-  <si>
-    <t>11050-241</t>
-  </si>
-  <si>
-    <t>11035-300</t>
-  </si>
-  <si>
-    <t>11060-451</t>
-  </si>
-  <si>
-    <t>11020-310</t>
-  </si>
-  <si>
-    <t>11075-550</t>
-  </si>
-  <si>
-    <t>11090-190</t>
-  </si>
-  <si>
-    <t>11075-330</t>
-  </si>
-  <si>
-    <t>11085-650</t>
-  </si>
-  <si>
-    <t>11095-030</t>
-  </si>
-  <si>
-    <t>11040-111</t>
-  </si>
-  <si>
-    <t>11040-141</t>
-  </si>
-  <si>
-    <t>11070-060</t>
-  </si>
-  <si>
-    <t>11013-490</t>
-  </si>
-  <si>
-    <t>11015-010</t>
-  </si>
-  <si>
-    <t>11088-300</t>
-  </si>
-  <si>
-    <t>11085-380</t>
-  </si>
-  <si>
-    <t>11230-990</t>
-  </si>
-  <si>
-    <t>11030-381</t>
-  </si>
-  <si>
-    <t>11088-001</t>
-  </si>
-  <si>
-    <t>11050-101</t>
-  </si>
-  <si>
-    <t>11088-330</t>
-  </si>
-  <si>
-    <t>11015-003</t>
-  </si>
-  <si>
-    <t>11095-070</t>
-  </si>
-  <si>
-    <t>11070-350</t>
-  </si>
-  <si>
-    <t>11095-420</t>
-  </si>
-  <si>
-    <t>11086-100</t>
-  </si>
-  <si>
-    <t>11065-300</t>
-  </si>
-  <si>
-    <t>11080-100</t>
-  </si>
-  <si>
-    <t>11087-000</t>
-  </si>
-  <si>
-    <t>11060-410</t>
-  </si>
-  <si>
-    <t>11035-171</t>
-  </si>
-  <si>
-    <t>11065-710</t>
-  </si>
-  <si>
-    <t>11095-390</t>
-  </si>
-  <si>
-    <t>11089-030</t>
-  </si>
-  <si>
-    <t>11055-011</t>
-  </si>
-  <si>
-    <t>11082-160</t>
-  </si>
-  <si>
-    <t>11025-002</t>
-  </si>
-  <si>
-    <t>11035-030</t>
-  </si>
-  <si>
-    <t>11087-460</t>
-  </si>
-  <si>
-    <t>11013-310</t>
-  </si>
-  <si>
-    <t>11085-203</t>
-  </si>
-  <si>
-    <t>11030-000</t>
-  </si>
-  <si>
-    <t>11085-050</t>
-  </si>
-  <si>
-    <t>11085-000</t>
-  </si>
-  <si>
-    <t>11010-270</t>
-  </si>
-  <si>
-    <t>11081-200</t>
-  </si>
-  <si>
-    <t>11220-000</t>
-  </si>
-  <si>
-    <t>11085-080</t>
-  </si>
-  <si>
-    <t>11200-990</t>
-  </si>
-  <si>
-    <t>11070-102</t>
-  </si>
-  <si>
-    <t>11020-010</t>
-  </si>
-  <si>
-    <t>11081-225</t>
-  </si>
-  <si>
-    <t>11085-350</t>
-  </si>
-  <si>
-    <t>11030-050</t>
-  </si>
-  <si>
-    <t>11013-601</t>
-  </si>
-  <si>
-    <t>11080-550</t>
-  </si>
-  <si>
-    <t>11080-130</t>
-  </si>
-  <si>
-    <t>11086-000</t>
-  </si>
-  <si>
-    <t>11082-430</t>
-  </si>
-  <si>
-    <t>11081-000</t>
-  </si>
-  <si>
-    <t>11015-110</t>
-  </si>
-  <si>
-    <t>11087-400</t>
-  </si>
-  <si>
-    <t>3239-4170</t>
-  </si>
-  <si>
-    <t>3299-4255</t>
-  </si>
-  <si>
-    <t>3234-8567</t>
-  </si>
-  <si>
-    <t>3233-2447</t>
-  </si>
-  <si>
-    <t>3227-2823</t>
-  </si>
-  <si>
-    <t>3232-6385</t>
-  </si>
-  <si>
-    <t>3252-3732</t>
-  </si>
-  <si>
-    <t>3237-6960</t>
-  </si>
-  <si>
-    <t>3222-9267</t>
-  </si>
-  <si>
-    <t>3203-1632</t>
-  </si>
-  <si>
-    <t>3231-1212</t>
-  </si>
-  <si>
-    <t>3219-2312</t>
-  </si>
-  <si>
-    <t>3203-2587</t>
-  </si>
-  <si>
-    <t>3228-1818</t>
-  </si>
-  <si>
-    <t>3258-6930</t>
-  </si>
-  <si>
-    <t>3234-4287</t>
-  </si>
-  <si>
-    <t>3232-9757</t>
-  </si>
-  <si>
-    <t>3227 4494</t>
-  </si>
-  <si>
-    <t>3271-6707</t>
-  </si>
-  <si>
-    <t>3284-5905</t>
-  </si>
-  <si>
-    <t>3231-1379</t>
-  </si>
-  <si>
-    <t>3237-7106</t>
-  </si>
-  <si>
-    <t>3299-3836</t>
-  </si>
-  <si>
-    <t>3234-9009</t>
-  </si>
-  <si>
-    <t>3203-2983</t>
-  </si>
-  <si>
-    <t>3299-8489</t>
-  </si>
-  <si>
-    <t>3227-2120</t>
-  </si>
-  <si>
-    <t>3227-0003</t>
-  </si>
-  <si>
-    <t>3252-6393</t>
-  </si>
-  <si>
-    <t>3222-9464</t>
-  </si>
-  <si>
-    <t>3235-1695</t>
-  </si>
-  <si>
-    <t>3299-5070</t>
-  </si>
-  <si>
-    <t>3296-4865</t>
-  </si>
-  <si>
-    <t>3268-2103</t>
-  </si>
-  <si>
-    <t>3261-3668</t>
-  </si>
-  <si>
-    <t>3299-4876</t>
-  </si>
-  <si>
-    <t>3222-2201</t>
-  </si>
-  <si>
-    <t>3203-6662</t>
-  </si>
-  <si>
-    <t>3232-3425</t>
-  </si>
-  <si>
-    <t>3203-2447</t>
-  </si>
-  <si>
-    <t>3237-6904</t>
-  </si>
-  <si>
-    <t>3296-6765</t>
-  </si>
-  <si>
-    <t>3299-4004</t>
-  </si>
-  <si>
-    <t>3237-6966</t>
-  </si>
-  <si>
-    <t>3258-7518</t>
-  </si>
-  <si>
-    <t>3299-1143</t>
-  </si>
-  <si>
-    <t>3284-1814</t>
-  </si>
-  <si>
-    <t>3236-9989</t>
-  </si>
-  <si>
-    <t>3225-6146</t>
-  </si>
-  <si>
-    <t>3219-9031</t>
-  </si>
-  <si>
-    <t>3203-2710</t>
-  </si>
-  <si>
-    <t>3258-6116</t>
-  </si>
-  <si>
-    <t>3286-1583</t>
-  </si>
-  <si>
-    <t>3233-1327</t>
-  </si>
-  <si>
-    <t>3216-1395</t>
-  </si>
-  <si>
-    <t>3236-9997</t>
-  </si>
-  <si>
-    <t>3203-3613</t>
-  </si>
-  <si>
-    <t>3219-3254</t>
-  </si>
-  <si>
-    <t>3219-8765</t>
-  </si>
-  <si>
-    <t>3261-4907</t>
-  </si>
-  <si>
-    <t>3296-5455</t>
-  </si>
-  <si>
-    <t>3219-1202</t>
-  </si>
-  <si>
-    <t>3219-3475</t>
-  </si>
-  <si>
-    <t>3296-1059</t>
-  </si>
-  <si>
-    <t>3352-4991</t>
-  </si>
-  <si>
-    <t>3296-3361</t>
-  </si>
-  <si>
-    <t>3268-1213</t>
-  </si>
-  <si>
-    <t>3239-3014</t>
-  </si>
-  <si>
-    <t>3238-9550</t>
-  </si>
-  <si>
-    <t>3296-3001</t>
-  </si>
-  <si>
-    <t>3299-9009</t>
-  </si>
-  <si>
-    <t>3203-5790</t>
-  </si>
-  <si>
-    <t>3261-1181</t>
-  </si>
-  <si>
-    <t>3261-5583</t>
-  </si>
-  <si>
-    <t>3228-3728</t>
-  </si>
-  <si>
-    <t>3258-6521</t>
-  </si>
-  <si>
-    <t>3268-1300</t>
-  </si>
-  <si>
-    <t>3258-6640</t>
-  </si>
-  <si>
-    <t>3291-3535</t>
-  </si>
-  <si>
-    <t>3223-2327</t>
-  </si>
-  <si>
-    <t>3258-7699</t>
-  </si>
-  <si>
-    <t>3296-4606</t>
-  </si>
-  <si>
-    <t>3221-8255</t>
-  </si>
-  <si>
-    <t>3203-1392</t>
-  </si>
-  <si>
-    <t>3203-3008</t>
-  </si>
-  <si>
-    <t>Rua Principal - Ilha Diana, Vila Base Aérea</t>
-  </si>
-  <si>
-    <t>Rua Ana Santos, 125</t>
-  </si>
-  <si>
-    <t>Rua 3 esq. C/ Rua 8</t>
-  </si>
-  <si>
-    <t>Av. Sen. Pinheiro Machado</t>
-  </si>
-  <si>
-    <t>Av. Cons. Rodrigues Alves</t>
-  </si>
-  <si>
-    <t>Rua Voluntários Santistas</t>
-  </si>
-  <si>
-    <t>Pça. Rubens Ferreira Martins</t>
-  </si>
-  <si>
-    <t>Rua Sete de Setembro</t>
-  </si>
-  <si>
-    <t>Rua Visconde de Cayrú</t>
-  </si>
-  <si>
-    <t>Rua Manoel Nascimento Junior</t>
-  </si>
-  <si>
-    <t>Pça. Profº José Oliveira Lopes</t>
-  </si>
-  <si>
-    <t>Av. Senador Dantas</t>
-  </si>
-  <si>
-    <t>Rua Augusto Gomes Pereira</t>
-  </si>
-  <si>
-    <t>Rua Dr. Alamir Barros França</t>
-  </si>
-  <si>
-    <t>Rua Paulo Clemente Santini</t>
-  </si>
-  <si>
-    <t>Av. Conselheiro Nébias</t>
-  </si>
-  <si>
-    <t>Rua Cunha Moreira</t>
-  </si>
-  <si>
-    <t>Av. Sen. César Lacerda Vergueiro</t>
-  </si>
-  <si>
-    <t>Rua Alm. Ernesto de Mello Jr.</t>
-  </si>
-  <si>
-    <t>Av. Eng. Manoel Ferramenta Jr.</t>
-  </si>
-  <si>
-    <t>Rua Bahia</t>
-  </si>
-  <si>
-    <t>Rua Antônio Maia</t>
-  </si>
-  <si>
-    <t>Bernardino de Campos</t>
-  </si>
-  <si>
-    <t>Rua Dr. Alderico Monteiro Soares</t>
-  </si>
-  <si>
-    <t>Rua São Paulo</t>
-  </si>
-  <si>
-    <t>Rua Luiz Di Renzo</t>
-  </si>
-  <si>
-    <t>Rua Cel. Feliciano Narciso Bicudo</t>
-  </si>
-  <si>
-    <t>Rua Oswaldo Cochrane</t>
-  </si>
-  <si>
-    <t>Rua Benjamin Constant</t>
-  </si>
-  <si>
-    <t>Av. Dr. Moura Ribeiro</t>
-  </si>
-  <si>
-    <t>Rua Vereador Freitas Guimarães</t>
-  </si>
-  <si>
-    <t>Rua Xavier Pinheiro</t>
-  </si>
-  <si>
-    <t>Av. Brigadeiro Faria Lima</t>
-  </si>
-  <si>
-    <t>Rua Santa Maria</t>
-  </si>
-  <si>
-    <t>Área Continental</t>
-  </si>
-  <si>
-    <t>Av. Rei Alberto I</t>
-  </si>
-  <si>
-    <t>Av. Hugo Maia</t>
-  </si>
-  <si>
-    <t>Rua Goiás</t>
-  </si>
-  <si>
-    <t>Rua Professor Nelson Espíndola Lo- bato</t>
-  </si>
-  <si>
-    <t>Rua Nicolau Geraigire</t>
-  </si>
-  <si>
-    <t>Rua Dr. Gaspar Ricardo</t>
-  </si>
-  <si>
-    <t>Rua Lúcia Hehl Caiaffa</t>
-  </si>
-  <si>
-    <t>Rua Tomoichi Kobuchi</t>
-  </si>
-  <si>
-    <t>Rua Pedro Borges Gonçalves</t>
-  </si>
-  <si>
-    <t>Av. Pref. Dr. Antônio Manoel de Car- valho</t>
-  </si>
-  <si>
-    <t>Av. Afonso Schmidt</t>
-  </si>
-  <si>
-    <t>Pça. Fernandes Pacheco</t>
-  </si>
-  <si>
-    <t>Rua Ricardo Pinto</t>
-  </si>
-  <si>
-    <t>Rua Dr. Carlos Alberto Curado</t>
-  </si>
-  <si>
-    <t>Rua dos Portugueses</t>
-  </si>
-  <si>
-    <t>Pça. Maria Coelho Lopes</t>
-  </si>
-  <si>
-    <t>Av. Santista</t>
-  </si>
-  <si>
-    <t>Rua Mato Grosso</t>
-  </si>
-  <si>
-    <t>Rua São João</t>
-  </si>
-  <si>
-    <t>Av. Dr. Pedro Lessa</t>
-  </si>
-  <si>
-    <t>Av. Professor Aristóteles Menezes</t>
-  </si>
-  <si>
-    <t>Rua Arthur Parsloe</t>
-  </si>
-  <si>
-    <t>Av. N. Senhora de Fátima</t>
-  </si>
-  <si>
-    <t>Pça. Engenheiro José Rebouças</t>
-  </si>
-  <si>
-    <t>Rua Pio XII</t>
-  </si>
-  <si>
-    <t>Av. Martins Fontes</t>
-  </si>
-  <si>
-    <t>Rua Mansueto Pierotti</t>
-  </si>
-  <si>
-    <t>Estrada João Baptista</t>
-  </si>
-  <si>
-    <t>Km 33</t>
-  </si>
-  <si>
-    <t>Rua Flamínio Levy</t>
-  </si>
-  <si>
-    <t>Rua Andrade Soares</t>
-  </si>
-  <si>
-    <t>Rua Carvalho de Mendonça</t>
-  </si>
-  <si>
-    <t>Pça. Coronel Fernando Prestes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (antiga Rua P)</t>
-  </si>
-  <si>
-    <t>Rodovia Piaçaguera/Guarujá - Km 33</t>
-  </si>
-  <si>
-    <t>Rua 4 - (antiga Rua P)</t>
-  </si>
-  <si>
-    <t>Rua Ana Pimentel</t>
-  </si>
-  <si>
-    <t>Av. Waldemar Leão</t>
-  </si>
-  <si>
-    <t>Rua Xavantes</t>
-  </si>
-  <si>
-    <t>Rua Lucinda de Matos</t>
-  </si>
-  <si>
-    <t>Av. Professor Francisco De Domê- nico</t>
-  </si>
-  <si>
-    <t>Rua Santa Helena</t>
-  </si>
-  <si>
-    <t>Rua São Roque</t>
-  </si>
-  <si>
-    <t>Rua 28 de Setembro,</t>
-  </si>
-  <si>
-    <t>Praça Maria Coelho Lopes</t>
-  </si>
-  <si>
-    <t>Rua Dr. Fausto Felício Brusarosco</t>
-  </si>
-  <si>
-    <t>ALCIDES LOBO VIANA DR.</t>
-  </si>
-  <si>
-    <t>ANTONIO DE OLIVEIRA PASSOS SOBRINHO PROF.</t>
-  </si>
-  <si>
-    <t>ANTONIO DEMOSTENES DE S BRITO PROF.</t>
-  </si>
-  <si>
-    <t>AUXILIADORA DA INSTRUCÂO</t>
-  </si>
-  <si>
-    <t>AVELINO DA PAZ VIEIRA PROF.</t>
-  </si>
-  <si>
-    <t>CELY DE MOURA NEGRINI PROF.</t>
-  </si>
-  <si>
-    <t>DINO BUENO DR.</t>
-  </si>
-  <si>
-    <t>EMILIA MARIA REIS PROFA.</t>
-  </si>
-  <si>
-    <t>FERNANDO COSTA DR.</t>
-  </si>
-  <si>
-    <t>FLORESTAN FERNANDES I PROF.</t>
-  </si>
-  <si>
-    <t>FLORESTAN FERNANDES PROF.</t>
-  </si>
-  <si>
-    <t>IVETA MESQUITA NOGUEIRA PROFA.</t>
-  </si>
-  <si>
-    <t>JOAO PAPA SOBRINHO PROF.</t>
-  </si>
-  <si>
-    <t>JOSE CARLOS AZEVEDO JUNIOR DR.</t>
-  </si>
-  <si>
-    <t>JOSE DA COSTA SILVA SOBRINHO DR.</t>
-  </si>
-  <si>
-    <t>JOSE DE SA PORTO PROF.</t>
-  </si>
-  <si>
-    <t>LUIZ LOPES DR.</t>
-  </si>
-  <si>
-    <t>MAGALI ALONSO PROF.</t>
-  </si>
-  <si>
-    <t>MARGARETH BUCHMANN PROFA.</t>
-  </si>
-  <si>
-    <t>MARIA CARMELITA PROOST VILLACA PROFA.</t>
-  </si>
-  <si>
-    <t>MARIA DE LOURDES BORGES BERNAL PROFA.</t>
-  </si>
-  <si>
-    <t>MARIO DE ALMEIDA ALCANTARA PROF.</t>
-  </si>
-  <si>
-    <t>NELSON DE TOLEDO PIZA DR.</t>
-  </si>
-  <si>
-    <t>ORLANDO ADEGAS PROF.</t>
-  </si>
-  <si>
-    <t>PEDRO CRESCENTI PROF.</t>
-  </si>
-  <si>
-    <t>PORCHAT DE ASSIS DR.</t>
-  </si>
-  <si>
-    <t>SAMUEL AUGUSTO LEAO MOURA DR.</t>
-  </si>
-  <si>
-    <t>WALDERY DE ALMEIDA PROF.</t>
-  </si>
-  <si>
-    <t>Creche Ágape</t>
-  </si>
-  <si>
-    <t>Creche Comunitária Amigos - Morro</t>
-  </si>
-  <si>
-    <t>Creche Comunitária Amigos II - ZN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Educandário Anália Franco    </t>
-  </si>
-  <si>
-    <t>Creche União Ancilla Domini</t>
-  </si>
-  <si>
-    <t>Creche Arcanjo Rafael - Un. I - Embaré</t>
-  </si>
-  <si>
-    <t>Creche Arcanjo Rafael - Un. II - Chico de Paula</t>
-  </si>
-  <si>
-    <t>Creche Arcanjo Rafael - Un.III - Marapé</t>
-  </si>
-  <si>
-    <t>Creche Arcanjo Rafael - Un. IV - Castelo</t>
-  </si>
-  <si>
-    <t>Creche Arcanjo Rafael - Un. V - Marapé II</t>
-  </si>
-  <si>
-    <t>Cto Social e Educ.Cantinho Alegre</t>
-  </si>
-  <si>
-    <t>Creche Comunitária Cantinho do Rádio Clube</t>
-  </si>
-  <si>
-    <t>Treze de Maio - Casa da Criança Stos</t>
-  </si>
-  <si>
-    <t>Creche e Pré-Escola Casa de Estar</t>
-  </si>
-  <si>
-    <t>Casa Mágica</t>
-  </si>
-  <si>
-    <t>Cr.e Esc.Nª Senh.da Divina Providência</t>
-  </si>
-  <si>
-    <t>Educ. Santista - Esc.Educ.Inf.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escola Portuguesa Educação Infantil </t>
-  </si>
-  <si>
-    <t>Creche Cecon Estrela Guia</t>
-  </si>
-  <si>
-    <t>Núcleo Educ. e RI Gente Miúda</t>
-  </si>
-  <si>
-    <t>Gota de Leite</t>
-  </si>
-  <si>
-    <t>Creche Lar Escola Irmã Scheilla</t>
-  </si>
-  <si>
-    <t>Creche Ismênia de Jesus</t>
-  </si>
-  <si>
-    <t>Creche e Pré-Escola Lar e Felicidade</t>
-  </si>
-  <si>
-    <t>Creche e Pré-Escola Lar Feliz</t>
-  </si>
-  <si>
-    <t>Com.Assist. Esp.Lar Veneranda</t>
-  </si>
-  <si>
-    <t>Creche Maria Ignez Barbosa - PAGOBA</t>
-  </si>
-  <si>
-    <t>Sociedade Filantrópica DAMASCO</t>
-  </si>
-  <si>
-    <t>Creche Lar Escola Maria Máximo</t>
-  </si>
-  <si>
-    <t>EMEENE de Santos  Mundo Novo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cto Conv.Ed.Inf.Nª Srª do Carmo </t>
-  </si>
-  <si>
-    <t>Creche Espírita Padre Bento</t>
-  </si>
-  <si>
-    <t>Creche Padre Lúcio Floro</t>
-  </si>
-  <si>
-    <t>Creche São Jorge Esc. Educ. Infantil</t>
-  </si>
-  <si>
-    <t>Inst.Ed. Inf. São José  (Sagrada Família)</t>
-  </si>
-  <si>
-    <t>Nª Srª das Graças  (Sagrada Família)</t>
-  </si>
-  <si>
-    <t>Creche Sonho de Criança - CECAJAS</t>
-  </si>
-  <si>
-    <t>Núcleo de Recr. Inf. e Creche Tia Edna</t>
-  </si>
-  <si>
-    <t>Creche Anjos do Amanhã</t>
+    <t>UME - CRECHE ANJOS DO AMANHÃ</t>
   </si>
 </sst>
 </file>
@@ -2022,24 +1032,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DA9257-B4D5-4E5C-82C2-6ED4623D6343}">
   <dimension ref="A1:AE784"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3"/>
-    <col min="2" max="2" width="21.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="61.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="3"/>
+    <col min="2" max="2" width="9.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="61.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="29" style="3" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" style="3" customWidth="1"/>
-    <col min="9" max="10" width="26.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="16.28515625" style="3"/>
+    <col min="6" max="6" width="46.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="26.44140625" style="3" customWidth="1"/>
+    <col min="9" max="10" width="26.88671875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="25.88671875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="16.33203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="20.100000000000001" customHeight="1">
@@ -2105,29 +1115,21 @@
       <c r="A2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1</v>
+      </c>
       <c r="D2" s="29" t="s">
-        <v>351</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="G2" s="25">
-        <v>606</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>108</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="25"/>
       <c r="K2" s="35" t="s">
         <v>15</v>
       </c>
@@ -2160,29 +1162,21 @@
       <c r="A3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="22">
+        <v>2</v>
+      </c>
       <c r="D3" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>109</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="35" t="s">
         <v>15</v>
       </c>
@@ -2215,29 +1209,21 @@
       <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="22">
+        <v>3</v>
+      </c>
       <c r="D4" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" s="25">
-        <v>197</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>110</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
       <c r="K4" s="35" t="s">
         <v>15</v>
       </c>
@@ -2270,29 +1256,21 @@
       <c r="A5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="22">
+        <v>4</v>
+      </c>
       <c r="D5" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>111</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="35" t="s">
         <v>15</v>
       </c>
@@ -2325,29 +1303,21 @@
       <c r="A6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="22">
+        <v>5</v>
+      </c>
       <c r="D6" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="G6" s="25">
-        <v>8</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>112</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="35" t="s">
         <v>15</v>
       </c>
@@ -2380,29 +1350,21 @@
       <c r="A7" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="22">
+        <v>6</v>
+      </c>
       <c r="D7" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="G7" s="25">
-        <v>22</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>113</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="35" t="s">
         <v>15</v>
       </c>
@@ -2435,29 +1397,21 @@
       <c r="A8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="22">
+        <v>7</v>
+      </c>
       <c r="D8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" s="25">
-        <v>617</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>114</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="35" t="s">
         <v>15</v>
       </c>
@@ -2490,29 +1444,21 @@
       <c r="A9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="22"/>
+      <c r="B9" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="22">
+        <v>8</v>
+      </c>
       <c r="D9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="G9" s="25">
-        <v>217</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>115</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="35" t="s">
         <v>15</v>
       </c>
@@ -2545,29 +1491,21 @@
       <c r="A10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="22"/>
+      <c r="B10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="22">
+        <v>9</v>
+      </c>
       <c r="D10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="G10" s="25">
-        <v>56</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>116</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="35" t="s">
         <v>15</v>
       </c>
@@ -2600,29 +1538,21 @@
       <c r="A11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="22"/>
+      <c r="B11" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="22">
+        <v>10</v>
+      </c>
       <c r="D11" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="G11" s="25">
-        <v>62</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>117</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="35" t="s">
         <v>15</v>
       </c>
@@ -2655,29 +1585,21 @@
       <c r="A12" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="22">
+        <v>11</v>
+      </c>
       <c r="D12" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="G12" s="25">
-        <v>410</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>118</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="35" t="s">
         <v>15</v>
       </c>
@@ -2710,29 +1632,21 @@
       <c r="A13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="22"/>
+      <c r="B13" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="22">
+        <v>12</v>
+      </c>
       <c r="D13" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="G13" s="25">
-        <v>861</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>119</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="25"/>
       <c r="K13" s="35" t="s">
         <v>15</v>
       </c>
@@ -2765,29 +1679,21 @@
       <c r="A14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="22"/>
+      <c r="B14" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="22">
+        <v>13</v>
+      </c>
       <c r="D14" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>283</v>
-      </c>
-      <c r="G14" s="25">
-        <v>73</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>120</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="35" t="s">
         <v>15</v>
       </c>
@@ -2820,29 +1726,21 @@
       <c r="A15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="22">
+        <v>14</v>
+      </c>
       <c r="D15" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="G15" s="25">
-        <v>34</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>113</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="25"/>
       <c r="K15" s="35" t="s">
         <v>15</v>
       </c>
@@ -2875,29 +1773,21 @@
       <c r="A16" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="22">
+        <v>15</v>
+      </c>
       <c r="D16" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="G16" s="25">
-        <v>36</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>121</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="35" t="s">
         <v>15</v>
       </c>
@@ -2930,29 +1820,21 @@
       <c r="A17" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="22">
+        <v>16</v>
+      </c>
       <c r="D17" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="G17" s="25">
-        <v>739</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>122</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="25"/>
       <c r="K17" s="35" t="s">
         <v>15</v>
       </c>
@@ -2985,29 +1867,21 @@
       <c r="A18" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="22">
+        <v>17</v>
+      </c>
       <c r="D18" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="G18" s="25">
-        <v>134</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>123</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="25"/>
       <c r="K18" s="35" t="s">
         <v>15</v>
       </c>
@@ -3040,29 +1914,21 @@
       <c r="A19" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="22">
+        <v>18</v>
+      </c>
       <c r="D19" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="G19" s="25">
-        <v>45</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>124</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="25"/>
       <c r="K19" s="35" t="s">
         <v>15</v>
       </c>
@@ -3097,27 +1963,13 @@
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="G20" s="25">
-        <v>130</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>124</v>
-      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="25"/>
       <c r="K20" s="35" t="s">
         <v>15</v>
       </c>
@@ -3150,29 +2002,21 @@
       <c r="A21" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="22">
+        <v>20</v>
+      </c>
       <c r="D21" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="G21" s="25">
-        <v>49</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>125</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="25"/>
       <c r="K21" s="35" t="s">
         <v>15</v>
       </c>
@@ -3205,29 +2049,21 @@
       <c r="A22" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="22"/>
+      <c r="B22" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="22">
+        <v>21</v>
+      </c>
       <c r="D22" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="G22" s="25">
-        <v>146</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>126</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="25"/>
       <c r="K22" s="35" t="s">
         <v>15</v>
       </c>
@@ -3260,29 +2096,21 @@
       <c r="A23" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="22"/>
+      <c r="B23" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="22">
+        <v>22</v>
+      </c>
       <c r="D23" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="F23" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="G23" s="25">
-        <v>355</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>127</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="25"/>
       <c r="K23" s="35" t="s">
         <v>15</v>
       </c>
@@ -3315,29 +2143,21 @@
       <c r="A24" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="22"/>
+      <c r="B24" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="22">
+        <v>23</v>
+      </c>
       <c r="D24" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>128</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="25"/>
       <c r="K24" s="35" t="s">
         <v>15</v>
       </c>
@@ -3370,29 +2190,21 @@
       <c r="A25" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="22"/>
+      <c r="B25" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="22">
+        <v>24</v>
+      </c>
       <c r="D25" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="F25" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="G25" s="25">
-        <v>40</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>129</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
       <c r="K25" s="35" t="s">
         <v>15</v>
       </c>
@@ -3425,29 +2237,21 @@
       <c r="A26" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="22">
+        <v>25</v>
+      </c>
       <c r="D26" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="G26" s="25">
-        <v>105</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>130</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="25"/>
       <c r="K26" s="35" t="s">
         <v>15</v>
       </c>
@@ -3482,27 +2286,13 @@
       </c>
       <c r="B27" s="29"/>
       <c r="C27" s="22"/>
-      <c r="D27" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="G27" s="25">
-        <v>598</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>131</v>
-      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
       <c r="K27" s="35" t="s">
         <v>15</v>
       </c>
@@ -3535,29 +2325,21 @@
       <c r="A28" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="22"/>
+      <c r="B28" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="22">
+        <v>27</v>
+      </c>
       <c r="D28" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="G28" s="25">
-        <v>91</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I28" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>132</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
       <c r="K28" s="35" t="s">
         <v>15</v>
       </c>
@@ -3590,29 +2372,21 @@
       <c r="A29" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="22"/>
+      <c r="B29" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="22">
+        <v>28</v>
+      </c>
       <c r="D29" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="G29" s="25">
-        <v>50</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>133</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="25"/>
       <c r="K29" s="35" t="s">
         <v>15</v>
       </c>
@@ -3645,29 +2419,21 @@
       <c r="A30" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="22">
+        <v>29</v>
+      </c>
       <c r="D30" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="G30" s="25">
-        <v>170</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I30" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>134</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="25"/>
       <c r="K30" s="35" t="s">
         <v>15</v>
       </c>
@@ -3700,29 +2466,21 @@
       <c r="A31" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="22">
+        <v>30</v>
+      </c>
       <c r="D31" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="G31" s="25">
-        <v>13</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="J31" s="25" t="s">
-        <v>135</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="25"/>
       <c r="K31" s="35" t="s">
         <v>15</v>
       </c>
@@ -3755,29 +2513,21 @@
       <c r="A32" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="22">
+        <v>31</v>
+      </c>
       <c r="D32" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="G32" s="25">
-        <v>217</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I32" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>136</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="25"/>
       <c r="K32" s="35" t="s">
         <v>15</v>
       </c>
@@ -3810,29 +2560,21 @@
       <c r="A33" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="22"/>
+      <c r="B33" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="22">
+        <v>32</v>
+      </c>
       <c r="D33" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>216</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="G33" s="25">
-        <v>835</v>
-      </c>
-      <c r="H33" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="J33" s="25" t="s">
-        <v>137</v>
-      </c>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="25"/>
       <c r="K33" s="35" t="s">
         <v>15</v>
       </c>
@@ -3865,29 +2607,21 @@
       <c r="A34" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="22"/>
+      <c r="B34" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="22">
+        <v>33</v>
+      </c>
       <c r="D34" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="F34" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="G34" s="25">
-        <v>9</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>138</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="25"/>
       <c r="K34" s="35" t="s">
         <v>15</v>
       </c>
@@ -3920,29 +2654,21 @@
       <c r="A35" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="22"/>
+      <c r="B35" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="22">
+        <v>34</v>
+      </c>
       <c r="D35" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="F35" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I35" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>139</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="25"/>
       <c r="K35" s="35" t="s">
         <v>15</v>
       </c>
@@ -3975,29 +2701,21 @@
       <c r="A36" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="22">
+        <v>35</v>
+      </c>
       <c r="D36" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="F36" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="G36" s="25">
-        <v>379</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I36" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="J36" s="25" t="s">
-        <v>140</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="25"/>
       <c r="K36" s="35" t="s">
         <v>15</v>
       </c>
@@ -4030,29 +2748,21 @@
       <c r="A37" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="22">
+        <v>36</v>
+      </c>
       <c r="D37" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="F37" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I37" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="J37" s="25" t="s">
-        <v>141</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="25"/>
       <c r="K37" s="35" t="s">
         <v>15</v>
       </c>
@@ -4085,29 +2795,21 @@
       <c r="A38" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="22"/>
+      <c r="B38" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="22">
+        <v>37</v>
+      </c>
       <c r="D38" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="F38" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="G38" s="25">
-        <v>145</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I38" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="J38" s="25" t="s">
-        <v>142</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="25"/>
       <c r="K38" s="35" t="s">
         <v>15</v>
       </c>
@@ -4142,27 +2844,13 @@
       </c>
       <c r="B39" s="29"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="F39" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I39" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="J39" s="25" t="s">
-        <v>143</v>
-      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="25"/>
       <c r="K39" s="35" t="s">
         <v>15</v>
       </c>
@@ -4195,29 +2883,21 @@
       <c r="A40" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="22"/>
+      <c r="B40" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="22">
+        <v>39</v>
+      </c>
       <c r="D40" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="G40" s="25">
-        <v>159</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I40" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>144</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="25"/>
       <c r="K40" s="35" t="s">
         <v>15</v>
       </c>
@@ -4252,27 +2932,13 @@
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>309</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>145</v>
-      </c>
+      <c r="D41" s="29"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
       <c r="K41" s="35" t="s">
         <v>15</v>
       </c>
@@ -4307,27 +2973,13 @@
       </c>
       <c r="B42" s="29"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="F42" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I42" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="J42" s="25" t="s">
-        <v>146</v>
-      </c>
+      <c r="D42" s="29"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="25"/>
       <c r="K42" s="35" t="s">
         <v>15</v>
       </c>
@@ -4362,27 +3014,13 @@
       </c>
       <c r="B43" s="29"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="F43" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="G43" s="25">
-        <v>375</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I43" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="J43" s="25" t="s">
-        <v>147</v>
-      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="25"/>
       <c r="K43" s="35" t="s">
         <v>15</v>
       </c>
@@ -4417,27 +3055,13 @@
       </c>
       <c r="B44" s="29"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="G44" s="25">
-        <v>10</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I44" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>148</v>
-      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="25"/>
       <c r="K44" s="35" t="s">
         <v>15</v>
       </c>
@@ -4472,27 +3096,13 @@
       </c>
       <c r="B45" s="29"/>
       <c r="C45" s="22"/>
-      <c r="D45" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="G45" s="25">
-        <v>106</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I45" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="J45" s="25" t="s">
-        <v>149</v>
-      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
       <c r="K45" s="35" t="s">
         <v>15</v>
       </c>
@@ -4527,27 +3137,13 @@
       </c>
       <c r="B46" s="29"/>
       <c r="C46" s="22"/>
-      <c r="D46" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I46" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>150</v>
-      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="25"/>
       <c r="K46" s="35" t="s">
         <v>15</v>
       </c>
@@ -4582,27 +3178,13 @@
       </c>
       <c r="B47" s="29"/>
       <c r="C47" s="22"/>
-      <c r="D47" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="G47" s="25">
-        <v>610</v>
-      </c>
-      <c r="H47" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I47" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J47" s="25" t="s">
-        <v>151</v>
-      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
       <c r="K47" s="35" t="s">
         <v>15</v>
       </c>
@@ -4637,27 +3219,13 @@
       </c>
       <c r="B48" s="29"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I48" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="J48" s="25" t="s">
-        <v>152</v>
-      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="25"/>
       <c r="K48" s="35" t="s">
         <v>15</v>
       </c>
@@ -4692,27 +3260,13 @@
       </c>
       <c r="B49" s="29"/>
       <c r="C49" s="22"/>
-      <c r="D49" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="F49" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="G49" s="25">
-        <v>129</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I49" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="J49" s="25" t="s">
-        <v>153</v>
-      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="25"/>
       <c r="K49" s="35" t="s">
         <v>15</v>
       </c>
@@ -4747,27 +3301,13 @@
       </c>
       <c r="B50" s="29"/>
       <c r="C50" s="22"/>
-      <c r="D50" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="G50" s="25">
-        <v>2287</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I50" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="J50" s="25" t="s">
-        <v>154</v>
-      </c>
+      <c r="D50" s="29"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="25"/>
       <c r="K50" s="35" t="s">
         <v>15</v>
       </c>
@@ -4802,27 +3342,13 @@
       </c>
       <c r="B51" s="29"/>
       <c r="C51" s="22"/>
-      <c r="D51" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I51" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="J51" s="25" t="s">
-        <v>155</v>
-      </c>
+      <c r="D51" s="29"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="25"/>
       <c r="K51" s="35" t="s">
         <v>15</v>
       </c>
@@ -4857,27 +3383,13 @@
       </c>
       <c r="B52" s="29"/>
       <c r="C52" s="22"/>
-      <c r="D52" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="F52" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="G52" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I52" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="J52" s="25" t="s">
-        <v>156</v>
-      </c>
+      <c r="D52" s="29"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="25"/>
       <c r="K52" s="35" t="s">
         <v>15</v>
       </c>
@@ -4912,27 +3424,13 @@
       </c>
       <c r="B53" s="29"/>
       <c r="C53" s="22"/>
-      <c r="D53" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="G53" s="38">
-        <v>65</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I53" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="J53" s="25" t="s">
-        <v>121</v>
-      </c>
+      <c r="D53" s="29"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
       <c r="K53" s="35" t="s">
         <v>15</v>
       </c>
@@ -4967,27 +3465,13 @@
       </c>
       <c r="B54" s="29"/>
       <c r="C54" s="22"/>
-      <c r="D54" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>237</v>
-      </c>
-      <c r="F54" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="G54" s="25">
-        <v>83</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I54" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="J54" s="25" t="s">
-        <v>157</v>
-      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="25"/>
       <c r="K54" s="35" t="s">
         <v>15</v>
       </c>
@@ -5022,27 +3506,13 @@
       </c>
       <c r="B55" s="29"/>
       <c r="C55" s="22"/>
-      <c r="D55" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="F55" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="G55" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I55" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="J55" s="25" t="s">
-        <v>158</v>
-      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="25"/>
       <c r="K55" s="35" t="s">
         <v>15</v>
       </c>
@@ -5077,27 +3547,13 @@
       </c>
       <c r="B56" s="29"/>
       <c r="C56" s="22"/>
-      <c r="D56" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="F56" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="G56" s="25">
-        <v>2880</v>
-      </c>
-      <c r="H56" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I56" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="J56" s="25" t="s">
-        <v>159</v>
-      </c>
+      <c r="D56" s="29"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="25"/>
       <c r="K56" s="35" t="s">
         <v>15</v>
       </c>
@@ -5132,27 +3588,13 @@
       </c>
       <c r="B57" s="29"/>
       <c r="C57" s="22"/>
-      <c r="D57" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="F57" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="G57" s="25">
-        <v>11</v>
-      </c>
-      <c r="H57" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I57" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="J57" s="25" t="s">
-        <v>160</v>
-      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="38"/>
+      <c r="J57" s="25"/>
       <c r="K57" s="35" t="s">
         <v>15</v>
       </c>
@@ -5187,27 +3629,13 @@
       </c>
       <c r="B58" s="29"/>
       <c r="C58" s="22"/>
-      <c r="D58" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="F58" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="G58" s="25">
-        <v>52</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I58" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="J58" s="25" t="s">
-        <v>161</v>
-      </c>
+      <c r="D58" s="29"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="25"/>
       <c r="K58" s="35" t="s">
         <v>15</v>
       </c>
@@ -5242,27 +3670,13 @@
       </c>
       <c r="B59" s="29"/>
       <c r="C59" s="22"/>
-      <c r="D59" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="F59" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="G59" s="25">
-        <v>34</v>
-      </c>
-      <c r="H59" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I59" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="J59" s="25" t="s">
-        <v>162</v>
-      </c>
+      <c r="D59" s="29"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="25"/>
       <c r="K59" s="35" t="s">
         <v>15</v>
       </c>
@@ -5297,27 +3711,13 @@
       </c>
       <c r="B60" s="29"/>
       <c r="C60" s="22"/>
-      <c r="D60" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="F60" s="38" t="s">
-        <v>327</v>
-      </c>
-      <c r="G60" s="25">
-        <v>915</v>
-      </c>
-      <c r="H60" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I60" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="J60" s="25" t="s">
-        <v>163</v>
-      </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="25"/>
       <c r="K60" s="35" t="s">
         <v>15</v>
       </c>
@@ -5352,27 +3752,13 @@
       </c>
       <c r="B61" s="29"/>
       <c r="C61" s="22"/>
-      <c r="D61" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="F61" s="38" t="s">
-        <v>328</v>
-      </c>
-      <c r="G61" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H61" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I61" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="J61" s="25" t="s">
-        <v>164</v>
-      </c>
+      <c r="D61" s="29"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="25"/>
       <c r="K61" s="35" t="s">
         <v>15</v>
       </c>
@@ -5407,27 +3793,13 @@
       </c>
       <c r="B62" s="29"/>
       <c r="C62" s="22"/>
-      <c r="D62" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="F62" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="G62" s="25">
-        <v>40</v>
-      </c>
-      <c r="H62" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I62" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="J62" s="25" t="s">
-        <v>165</v>
-      </c>
+      <c r="D62" s="29"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="25"/>
       <c r="K62" s="35" t="s">
         <v>15</v>
       </c>
@@ -5462,27 +3834,13 @@
       </c>
       <c r="B63" s="29"/>
       <c r="C63" s="22"/>
-      <c r="D63" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="F63" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="G63" s="25">
-        <v>225</v>
-      </c>
-      <c r="H63" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I63" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="J63" s="25" t="s">
-        <v>166</v>
-      </c>
+      <c r="D63" s="29"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="25"/>
       <c r="K63" s="35" t="s">
         <v>15</v>
       </c>
@@ -5517,27 +3875,13 @@
       </c>
       <c r="B64" s="29"/>
       <c r="C64" s="22"/>
-      <c r="D64" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="G64" s="25">
-        <v>75</v>
-      </c>
-      <c r="H64" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I64" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="J64" s="25" t="s">
-        <v>167</v>
-      </c>
+      <c r="D64" s="29"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="25"/>
       <c r="K64" s="35" t="s">
         <v>15</v>
       </c>
@@ -5572,27 +3916,13 @@
       </c>
       <c r="B65" s="29"/>
       <c r="C65" s="22"/>
-      <c r="D65" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="F65" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="G65" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H65" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I65" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="J65" s="25" t="s">
-        <v>168</v>
-      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
       <c r="K65" s="35" t="s">
         <v>15</v>
       </c>
@@ -5627,27 +3957,13 @@
       </c>
       <c r="B66" s="29"/>
       <c r="C66" s="22"/>
-      <c r="D66" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E66" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="F66" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="G66" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H66" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="I66" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="J66" s="25" t="s">
-        <v>169</v>
-      </c>
+      <c r="D66" s="29"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="25"/>
       <c r="K66" s="35" t="s">
         <v>15</v>
       </c>
@@ -5682,27 +3998,13 @@
       </c>
       <c r="B67" s="29"/>
       <c r="C67" s="22"/>
-      <c r="D67" s="29" t="s">
-        <v>373</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>250</v>
-      </c>
-      <c r="F67" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="G67" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H67" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I67" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="J67" s="25" t="s">
-        <v>170</v>
-      </c>
+      <c r="D67" s="29"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="25"/>
       <c r="K67" s="35" t="s">
         <v>15</v>
       </c>
@@ -5737,27 +4039,13 @@
       </c>
       <c r="B68" s="29"/>
       <c r="C68" s="22"/>
-      <c r="D68" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E68" s="27" t="s">
-        <v>251</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>335</v>
-      </c>
-      <c r="G68" s="25">
-        <v>187</v>
-      </c>
-      <c r="H68" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I68" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="J68" s="25" t="s">
-        <v>171</v>
-      </c>
+      <c r="D68" s="29"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
       <c r="K68" s="35" t="s">
         <v>15</v>
       </c>
@@ -5792,27 +4080,13 @@
       </c>
       <c r="B69" s="29"/>
       <c r="C69" s="22"/>
-      <c r="D69" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E69" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F69" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="G69" s="25">
-        <v>601</v>
-      </c>
-      <c r="H69" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I69" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="J69" s="25" t="s">
-        <v>172</v>
-      </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
       <c r="K69" s="35" t="s">
         <v>15</v>
       </c>
@@ -5847,27 +4121,13 @@
       </c>
       <c r="B70" s="29"/>
       <c r="C70" s="22"/>
-      <c r="D70" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="F70" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="G70" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H70" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I70" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="J70" s="25" t="s">
-        <v>173</v>
-      </c>
+      <c r="D70" s="29"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="25"/>
       <c r="K70" s="35" t="s">
         <v>15</v>
       </c>
@@ -5902,27 +4162,13 @@
       </c>
       <c r="B71" s="29"/>
       <c r="C71" s="22"/>
-      <c r="D71" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="F71" s="38" t="s">
-        <v>340</v>
-      </c>
-      <c r="G71" s="25">
-        <v>80</v>
-      </c>
-      <c r="H71" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="I71" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="J71" s="25" t="s">
-        <v>174</v>
-      </c>
+      <c r="D71" s="29"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="25"/>
       <c r="K71" s="35" t="s">
         <v>15</v>
       </c>
@@ -5957,27 +4203,13 @@
       </c>
       <c r="B72" s="29"/>
       <c r="C72" s="22"/>
-      <c r="D72" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>255</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="G72" s="25">
-        <v>125</v>
-      </c>
-      <c r="H72" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I72" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="J72" s="25" t="s">
-        <v>175</v>
-      </c>
+      <c r="D72" s="29"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="25"/>
       <c r="K72" s="35" t="s">
         <v>15</v>
       </c>
@@ -6012,27 +4244,13 @@
       </c>
       <c r="B73" s="29"/>
       <c r="C73" s="22"/>
-      <c r="D73" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="F73" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="G73" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H73" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I73" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="J73" s="25" t="s">
-        <v>137</v>
-      </c>
+      <c r="D73" s="29"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="25"/>
       <c r="K73" s="35" t="s">
         <v>15</v>
       </c>
@@ -6067,27 +4285,13 @@
       </c>
       <c r="B74" s="29"/>
       <c r="C74" s="22"/>
-      <c r="D74" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="E74" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="F74" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="G74" s="25">
-        <v>41</v>
-      </c>
-      <c r="H74" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I74" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="J74" s="25" t="s">
-        <v>160</v>
-      </c>
+      <c r="D74" s="29"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="25"/>
       <c r="K74" s="35" t="s">
         <v>15</v>
       </c>
@@ -6122,27 +4326,13 @@
       </c>
       <c r="B75" s="29"/>
       <c r="C75" s="22"/>
-      <c r="D75" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="F75" s="38" t="s">
-        <v>341</v>
-      </c>
-      <c r="G75" s="25">
-        <v>23</v>
-      </c>
-      <c r="H75" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I75" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="J75" s="25" t="s">
-        <v>176</v>
-      </c>
+      <c r="D75" s="29"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="25"/>
       <c r="K75" s="35" t="s">
         <v>15</v>
       </c>
@@ -6177,27 +4367,13 @@
       </c>
       <c r="B76" s="29"/>
       <c r="C76" s="22"/>
-      <c r="D76" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E76" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="F76" s="38" t="s">
-        <v>342</v>
-      </c>
-      <c r="G76" s="25">
-        <v>184</v>
-      </c>
-      <c r="H76" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I76" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="J76" s="25" t="s">
-        <v>177</v>
-      </c>
+      <c r="D76" s="29"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
       <c r="K76" s="35" t="s">
         <v>15</v>
       </c>
@@ -6232,27 +4408,13 @@
       </c>
       <c r="B77" s="29"/>
       <c r="C77" s="22"/>
-      <c r="D77" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>260</v>
-      </c>
-      <c r="F77" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="G77" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H77" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I77" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="J77" s="25" t="s">
-        <v>178</v>
-      </c>
+      <c r="D77" s="29"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="25"/>
       <c r="K77" s="35" t="s">
         <v>15</v>
       </c>
@@ -6287,27 +4449,13 @@
       </c>
       <c r="B78" s="29"/>
       <c r="C78" s="22"/>
-      <c r="D78" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="G78" s="25">
-        <v>70</v>
-      </c>
-      <c r="H78" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I78" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="J78" s="25" t="s">
-        <v>171</v>
-      </c>
+      <c r="D78" s="29"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
       <c r="K78" s="35" t="s">
         <v>15</v>
       </c>
@@ -6342,27 +4490,13 @@
       </c>
       <c r="B79" s="29"/>
       <c r="C79" s="22"/>
-      <c r="D79" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="F79" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="G79" s="25">
-        <v>293</v>
-      </c>
-      <c r="H79" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I79" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="J79" s="25" t="s">
-        <v>179</v>
-      </c>
+      <c r="D79" s="29"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="25"/>
       <c r="K79" s="35" t="s">
         <v>15</v>
       </c>
@@ -6397,27 +4531,13 @@
       </c>
       <c r="B80" s="29"/>
       <c r="C80" s="22"/>
-      <c r="D80" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="F80" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="G80" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="H80" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I80" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="J80" s="25" t="s">
-        <v>75</v>
-      </c>
+      <c r="D80" s="29"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="25"/>
       <c r="K80" s="35" t="s">
         <v>15</v>
       </c>
@@ -6452,27 +4572,13 @@
       </c>
       <c r="B81" s="29"/>
       <c r="C81" s="22"/>
-      <c r="D81" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="F81" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="G81" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H81" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I81" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J81" s="25" t="s">
-        <v>180</v>
-      </c>
+      <c r="D81" s="29"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
       <c r="K81" s="35" t="s">
         <v>15</v>
       </c>
@@ -6507,27 +4613,13 @@
       </c>
       <c r="B82" s="29"/>
       <c r="C82" s="22"/>
-      <c r="D82" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="F82" s="38" t="s">
-        <v>346</v>
-      </c>
-      <c r="G82" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H82" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I82" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="J82" s="25" t="s">
-        <v>181</v>
-      </c>
+      <c r="D82" s="29"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
       <c r="K82" s="35" t="s">
         <v>15</v>
       </c>
@@ -6562,27 +4654,13 @@
       </c>
       <c r="B83" s="29"/>
       <c r="C83" s="22"/>
-      <c r="D83" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E83" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>347</v>
-      </c>
-      <c r="G83" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H83" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I83" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="J83" s="25" t="s">
-        <v>182</v>
-      </c>
+      <c r="D83" s="29"/>
+      <c r="E83" s="38"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
       <c r="K83" s="35" t="s">
         <v>15</v>
       </c>
@@ -6617,27 +4695,13 @@
       </c>
       <c r="B84" s="29"/>
       <c r="C84" s="22"/>
-      <c r="D84" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E84" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="F84" s="38" t="s">
-        <v>334</v>
-      </c>
-      <c r="G84" s="25">
-        <v>1051</v>
-      </c>
-      <c r="H84" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I84" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="J84" s="25" t="s">
-        <v>170</v>
-      </c>
+      <c r="D84" s="29"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="25"/>
       <c r="K84" s="35" t="s">
         <v>15</v>
       </c>
@@ -6672,27 +4736,13 @@
       </c>
       <c r="B85" s="29"/>
       <c r="C85" s="22"/>
-      <c r="D85" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="E85" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="F85" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="G85" s="25">
-        <v>201</v>
-      </c>
-      <c r="H85" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I85" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="J85" s="25" t="s">
-        <v>183</v>
-      </c>
+      <c r="D85" s="29"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
       <c r="K85" s="35" t="s">
         <v>15</v>
       </c>
@@ -6727,27 +4777,13 @@
       </c>
       <c r="B86" s="29"/>
       <c r="C86" s="22"/>
-      <c r="D86" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="E86" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="F86" s="38" t="s">
-        <v>349</v>
-      </c>
-      <c r="G86" s="25">
-        <v>0</v>
-      </c>
-      <c r="H86" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I86" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="J86" s="25" t="s">
-        <v>156</v>
-      </c>
+      <c r="D86" s="29"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="38"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="25"/>
       <c r="K86" s="35" t="s">
         <v>15</v>
       </c>
@@ -6782,27 +4818,13 @@
       </c>
       <c r="B87" s="29"/>
       <c r="C87" s="22"/>
-      <c r="D87" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="F87" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="G87" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="H87" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="I87" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="J87" s="25" t="s">
-        <v>184</v>
-      </c>
+      <c r="D87" s="29"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="38"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="25"/>
       <c r="K87" s="35" t="s">
         <v>15</v>
       </c>
@@ -6878,9 +4900,7 @@
       </c>
       <c r="B89" s="29"/>
       <c r="C89" s="22"/>
-      <c r="D89" s="29" t="s">
-        <v>379</v>
-      </c>
+      <c r="D89" s="29"/>
       <c r="E89" s="27"/>
       <c r="F89" s="33"/>
       <c r="G89" s="25"/>
@@ -6921,9 +4941,7 @@
       </c>
       <c r="B90" s="29"/>
       <c r="C90" s="22"/>
-      <c r="D90" s="29" t="s">
-        <v>380</v>
-      </c>
+      <c r="D90" s="29"/>
       <c r="E90" s="27"/>
       <c r="F90" s="33"/>
       <c r="G90" s="25"/>
@@ -6964,9 +4982,7 @@
       </c>
       <c r="B91" s="29"/>
       <c r="C91" s="22"/>
-      <c r="D91" s="29" t="s">
-        <v>381</v>
-      </c>
+      <c r="D91" s="29"/>
       <c r="E91" s="27"/>
       <c r="F91" s="25"/>
       <c r="G91" s="25"/>
@@ -7007,9 +5023,7 @@
       </c>
       <c r="B92" s="29"/>
       <c r="C92" s="22"/>
-      <c r="D92" s="29" t="s">
-        <v>382</v>
-      </c>
+      <c r="D92" s="29"/>
       <c r="E92" s="27"/>
       <c r="F92" s="33"/>
       <c r="G92" s="25"/>
@@ -7050,9 +5064,7 @@
       </c>
       <c r="B93" s="29"/>
       <c r="C93" s="22"/>
-      <c r="D93" s="29" t="s">
-        <v>383</v>
-      </c>
+      <c r="D93" s="29"/>
       <c r="E93" s="27"/>
       <c r="F93" s="33"/>
       <c r="G93" s="25"/>
@@ -7093,9 +5105,7 @@
       </c>
       <c r="B94" s="29"/>
       <c r="C94" s="22"/>
-      <c r="D94" s="29" t="s">
-        <v>384</v>
-      </c>
+      <c r="D94" s="29"/>
       <c r="E94" s="27"/>
       <c r="F94" s="33"/>
       <c r="G94" s="25"/>
@@ -7136,9 +5146,7 @@
       </c>
       <c r="B95" s="29"/>
       <c r="C95" s="22"/>
-      <c r="D95" s="29" t="s">
-        <v>385</v>
-      </c>
+      <c r="D95" s="29"/>
       <c r="E95" s="27"/>
       <c r="F95" s="33"/>
       <c r="G95" s="25"/>
@@ -7179,9 +5187,7 @@
       </c>
       <c r="B96" s="29"/>
       <c r="C96" s="22"/>
-      <c r="D96" s="29" t="s">
-        <v>386</v>
-      </c>
+      <c r="D96" s="29"/>
       <c r="E96" s="27"/>
       <c r="F96" s="33"/>
       <c r="G96" s="25"/>
@@ -7222,9 +5228,7 @@
       </c>
       <c r="B97" s="29"/>
       <c r="C97" s="22"/>
-      <c r="D97" s="29" t="s">
-        <v>387</v>
-      </c>
+      <c r="D97" s="29"/>
       <c r="E97" s="27"/>
       <c r="F97" s="24"/>
       <c r="G97" s="25"/>
@@ -7265,9 +5269,7 @@
       </c>
       <c r="B98" s="29"/>
       <c r="C98" s="22"/>
-      <c r="D98" s="29" t="s">
-        <v>388</v>
-      </c>
+      <c r="D98" s="29"/>
       <c r="E98" s="27"/>
       <c r="F98" s="25"/>
       <c r="G98" s="25"/>
@@ -7308,9 +5310,7 @@
       </c>
       <c r="B99" s="29"/>
       <c r="C99" s="22"/>
-      <c r="D99" s="29" t="s">
-        <v>389</v>
-      </c>
+      <c r="D99" s="29"/>
       <c r="E99" s="27"/>
       <c r="F99" s="25"/>
       <c r="G99" s="25"/>
@@ -7351,9 +5351,7 @@
       </c>
       <c r="B100" s="29"/>
       <c r="C100" s="22"/>
-      <c r="D100" s="29" t="s">
-        <v>390</v>
-      </c>
+      <c r="D100" s="29"/>
       <c r="E100" s="27"/>
       <c r="F100" s="25"/>
       <c r="G100" s="25"/>
@@ -7394,9 +5392,7 @@
       </c>
       <c r="B101" s="29"/>
       <c r="C101" s="22"/>
-      <c r="D101" s="29" t="s">
-        <v>391</v>
-      </c>
+      <c r="D101" s="29"/>
       <c r="E101" s="27"/>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -7437,9 +5433,7 @@
       </c>
       <c r="B102" s="29"/>
       <c r="C102" s="22"/>
-      <c r="D102" s="29" t="s">
-        <v>392</v>
-      </c>
+      <c r="D102" s="29"/>
       <c r="E102" s="27"/>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -7480,9 +5474,7 @@
       </c>
       <c r="B103" s="29"/>
       <c r="C103" s="22"/>
-      <c r="D103" s="29" t="s">
-        <v>393</v>
-      </c>
+      <c r="D103" s="29"/>
       <c r="E103" s="27"/>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -7523,9 +5515,7 @@
       </c>
       <c r="B104" s="29"/>
       <c r="C104" s="22"/>
-      <c r="D104" s="29" t="s">
-        <v>394</v>
-      </c>
+      <c r="D104" s="29"/>
       <c r="E104" s="27"/>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -7566,9 +5556,7 @@
       </c>
       <c r="B105" s="29"/>
       <c r="C105" s="22"/>
-      <c r="D105" s="29" t="s">
-        <v>395</v>
-      </c>
+      <c r="D105" s="29"/>
       <c r="E105" s="27"/>
       <c r="F105" s="25"/>
       <c r="G105" s="25"/>
@@ -7609,9 +5597,7 @@
       </c>
       <c r="B106" s="29"/>
       <c r="C106" s="22"/>
-      <c r="D106" s="29" t="s">
-        <v>396</v>
-      </c>
+      <c r="D106" s="29"/>
       <c r="E106" s="27"/>
       <c r="F106" s="24"/>
       <c r="G106" s="25"/>
@@ -7652,9 +5638,7 @@
       </c>
       <c r="B107" s="29"/>
       <c r="C107" s="22"/>
-      <c r="D107" s="29" t="s">
-        <v>397</v>
-      </c>
+      <c r="D107" s="29"/>
       <c r="E107" s="27"/>
       <c r="F107" s="25"/>
       <c r="G107" s="25"/>
@@ -7695,9 +5679,7 @@
       </c>
       <c r="B108" s="29"/>
       <c r="C108" s="22"/>
-      <c r="D108" s="29" t="s">
-        <v>398</v>
-      </c>
+      <c r="D108" s="29"/>
       <c r="E108" s="27"/>
       <c r="F108" s="25"/>
       <c r="G108" s="25"/>
@@ -7738,9 +5720,7 @@
       </c>
       <c r="B109" s="29"/>
       <c r="C109" s="22"/>
-      <c r="D109" s="29" t="s">
-        <v>399</v>
-      </c>
+      <c r="D109" s="29"/>
       <c r="E109" s="27"/>
       <c r="F109" s="25"/>
       <c r="G109" s="25"/>
@@ -7781,9 +5761,7 @@
       </c>
       <c r="B110" s="29"/>
       <c r="C110" s="22"/>
-      <c r="D110" s="29" t="s">
-        <v>400</v>
-      </c>
+      <c r="D110" s="29"/>
       <c r="E110" s="27"/>
       <c r="F110" s="24"/>
       <c r="G110" s="25"/>
@@ -7824,9 +5802,7 @@
       </c>
       <c r="B111" s="29"/>
       <c r="C111" s="22"/>
-      <c r="D111" s="29" t="s">
-        <v>401</v>
-      </c>
+      <c r="D111" s="29"/>
       <c r="E111" s="27"/>
       <c r="F111" s="24"/>
       <c r="G111" s="25"/>
@@ -7867,9 +5843,7 @@
       </c>
       <c r="B112" s="29"/>
       <c r="C112" s="22"/>
-      <c r="D112" s="29" t="s">
-        <v>402</v>
-      </c>
+      <c r="D112" s="29"/>
       <c r="E112" s="32"/>
       <c r="F112" s="25"/>
       <c r="G112" s="25"/>
@@ -7910,9 +5884,7 @@
       </c>
       <c r="B113" s="29"/>
       <c r="C113" s="22"/>
-      <c r="D113" s="29" t="s">
-        <v>403</v>
-      </c>
+      <c r="D113" s="29"/>
       <c r="E113" s="27"/>
       <c r="F113" s="25"/>
       <c r="G113" s="25"/>
@@ -7953,9 +5925,7 @@
       </c>
       <c r="B114" s="29"/>
       <c r="C114" s="22"/>
-      <c r="D114" s="29" t="s">
-        <v>404</v>
-      </c>
+      <c r="D114" s="29"/>
       <c r="E114" s="27"/>
       <c r="F114" s="25"/>
       <c r="G114" s="25"/>
@@ -7996,9 +5966,7 @@
       </c>
       <c r="B115" s="29"/>
       <c r="C115" s="22"/>
-      <c r="D115" s="29" t="s">
-        <v>405</v>
-      </c>
+      <c r="D115" s="29"/>
       <c r="E115" s="27"/>
       <c r="F115" s="33"/>
       <c r="G115" s="25"/>
@@ -8039,9 +6007,7 @@
       </c>
       <c r="B116" s="29"/>
       <c r="C116" s="22"/>
-      <c r="D116" s="29" t="s">
-        <v>406</v>
-      </c>
+      <c r="D116" s="29"/>
       <c r="E116" s="27"/>
       <c r="F116" s="33"/>
       <c r="G116" s="25"/>
@@ -8082,9 +6048,7 @@
       </c>
       <c r="B117" s="29"/>
       <c r="C117" s="22"/>
-      <c r="D117" s="29" t="s">
-        <v>407</v>
-      </c>
+      <c r="D117" s="29"/>
       <c r="E117" s="27"/>
       <c r="F117" s="25"/>
       <c r="G117" s="25"/>
@@ -8125,9 +6089,7 @@
       </c>
       <c r="B118" s="29"/>
       <c r="C118" s="22"/>
-      <c r="D118" s="29" t="s">
-        <v>408</v>
-      </c>
+      <c r="D118" s="29"/>
       <c r="E118" s="27"/>
       <c r="F118" s="25"/>
       <c r="G118" s="25"/>
@@ -8168,9 +6130,7 @@
       </c>
       <c r="B119" s="29"/>
       <c r="C119" s="22"/>
-      <c r="D119" s="29" t="s">
-        <v>409</v>
-      </c>
+      <c r="D119" s="29"/>
       <c r="E119" s="27"/>
       <c r="F119" s="25"/>
       <c r="G119" s="25"/>
@@ -8211,9 +6171,7 @@
       </c>
       <c r="B120" s="29"/>
       <c r="C120" s="22"/>
-      <c r="D120" s="29" t="s">
-        <v>410</v>
-      </c>
+      <c r="D120" s="29"/>
       <c r="E120" s="27"/>
       <c r="F120" s="25"/>
       <c r="G120" s="25"/>
@@ -8254,9 +6212,7 @@
       </c>
       <c r="B121" s="29"/>
       <c r="C121" s="22"/>
-      <c r="D121" s="29" t="s">
-        <v>411</v>
-      </c>
+      <c r="D121" s="29"/>
       <c r="E121" s="27"/>
       <c r="F121" s="25"/>
       <c r="G121" s="25"/>
@@ -8297,9 +6253,7 @@
       </c>
       <c r="B122" s="29"/>
       <c r="C122" s="22"/>
-      <c r="D122" s="29" t="s">
-        <v>412</v>
-      </c>
+      <c r="D122" s="29"/>
       <c r="E122" s="27"/>
       <c r="F122" s="25"/>
       <c r="G122" s="25"/>
@@ -8340,9 +6294,7 @@
       </c>
       <c r="B123" s="29"/>
       <c r="C123" s="22"/>
-      <c r="D123" s="29" t="s">
-        <v>413</v>
-      </c>
+      <c r="D123" s="29"/>
       <c r="E123" s="27"/>
       <c r="F123" s="25"/>
       <c r="G123" s="25"/>
@@ -8383,9 +6335,7 @@
       </c>
       <c r="B124" s="29"/>
       <c r="C124" s="22"/>
-      <c r="D124" s="29" t="s">
-        <v>414</v>
-      </c>
+      <c r="D124" s="29"/>
       <c r="E124" s="27"/>
       <c r="F124" s="25"/>
       <c r="G124" s="25"/>
@@ -8426,9 +6376,7 @@
       </c>
       <c r="B125" s="29"/>
       <c r="C125" s="22"/>
-      <c r="D125" s="29" t="s">
-        <v>415</v>
-      </c>
+      <c r="D125" s="29"/>
       <c r="E125" s="27"/>
       <c r="F125" s="25"/>
       <c r="G125" s="25"/>
@@ -8469,9 +6417,7 @@
       </c>
       <c r="B126" s="29"/>
       <c r="C126" s="22"/>
-      <c r="D126" s="29" t="s">
-        <v>416</v>
-      </c>
+      <c r="D126" s="29"/>
       <c r="E126" s="27"/>
       <c r="F126" s="25"/>
       <c r="G126" s="25"/>
@@ -8512,9 +6458,7 @@
       </c>
       <c r="B127" s="29"/>
       <c r="C127" s="22"/>
-      <c r="D127" s="29" t="s">
-        <v>417</v>
-      </c>
+      <c r="D127" s="29"/>
       <c r="E127" s="27"/>
       <c r="F127" s="25"/>
       <c r="G127" s="25"/>

--- a/core/utils/cadendereco.xlsx
+++ b/core/utils/cadendereco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC50366-BC37-4896-9057-FBD5F4E9A0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC6EB6C-9892-4893-BBEC-3314C503BF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2798" uniqueCount="214">
   <si>
     <t>ESCOLA</t>
   </si>
@@ -289,6 +289,384 @@
   </si>
   <si>
     <t>UME - CRECHE ANJOS DO AMANHÃ</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>UME - CANDINHA RIBEIRO DE MENDONCA</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>UME - CLAUDIA HELENA DOS SANTOS OLIVEIRA CORREA</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>UME - CLOVIS BANDEIRA BRASIL GENERAL</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>UME - DEROSSE JOSE DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>UME - ELSA VIRTUOSO</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>UME - GEMMA REBELLO</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>UME - HILDA D'ONOFRIO PAPA</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>UME - HILDA RABACA</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>UME - ILHA DIANA</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>UME - IVETA MESQUITA NOGUEIRA PROFA</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>UME - JOAO IGNACIO DE SOUZA VEREADOR</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>UME - JOAO WALTER SAMPAIO SMOLKA</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>UME - JOSE DA COSTA BARBOSA</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>UME - LAURIVAL RODRIGUES</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>UME - LEONOR MENDES DE BARROS</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>UME - LUIZ ALCA DE SANTANA</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>UME - LUIZ LOPES DR</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>UME - LYDIA FEDERICI</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>UME - MAGALI ALONSO PROF</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>UME - SANDRA CRISTINA TEIXEIRA DA GAMA</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>UME - TEREZINHA MARIA CALCADA BASTOS</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>UME - YARA NASCIMENTO SANTINI</t>
+  </si>
+  <si>
+    <t>Rua Manoel Nascimento Junior</t>
+  </si>
+  <si>
+    <t>jabaquara</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>11013-550</t>
+  </si>
+  <si>
+    <t>3222-9267</t>
+  </si>
+  <si>
+    <t>rua augusto gomes pereira</t>
+  </si>
+  <si>
+    <t>3219-2312</t>
+  </si>
+  <si>
+    <t>bom retiro</t>
+  </si>
+  <si>
+    <t>11089-220</t>
+  </si>
+  <si>
+    <t>3203-2587</t>
+  </si>
+  <si>
+    <t>rua dr. Alamir barros frança</t>
+  </si>
+  <si>
+    <t>11090-020</t>
+  </si>
+  <si>
+    <t>3234-4287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">av. conselheiro nébias </t>
+  </si>
+  <si>
+    <t>boqueirão</t>
+  </si>
+  <si>
+    <t>11045-003</t>
+  </si>
+  <si>
+    <t>3231-1379</t>
+  </si>
+  <si>
+    <t>rua antônio maia</t>
+  </si>
+  <si>
+    <t>estuário</t>
+  </si>
+  <si>
+    <t>11020-310</t>
+  </si>
+  <si>
+    <t>3222-9464</t>
+  </si>
+  <si>
+    <t>rua vereador freitas guimarães</t>
+  </si>
+  <si>
+    <t>vila nova</t>
+  </si>
+  <si>
+    <t>11013-490</t>
+  </si>
+  <si>
+    <t>3299-5070</t>
+  </si>
+  <si>
+    <t>av. brigadeiro faria lima</t>
+  </si>
+  <si>
+    <t>rádio clube</t>
+  </si>
+  <si>
+    <t>11088-300</t>
+  </si>
+  <si>
+    <t>3296-4865</t>
+  </si>
+  <si>
+    <t>rua santa maria</t>
+  </si>
+  <si>
+    <t>vila haddad</t>
+  </si>
+  <si>
+    <t>11085-380</t>
+  </si>
+  <si>
+    <t>3268-2103</t>
+  </si>
+  <si>
+    <t>rua principal - ilha diana - vila base aérea</t>
+  </si>
+  <si>
+    <t>s/n º</t>
+  </si>
+  <si>
+    <t>área continental</t>
+  </si>
+  <si>
+    <t>11230-990</t>
+  </si>
+  <si>
+    <t>3261-3668</t>
+  </si>
+  <si>
+    <t>av. rei alberto I</t>
+  </si>
+  <si>
+    <t>ponta da praia</t>
+  </si>
+  <si>
+    <t>11030-381</t>
+  </si>
+  <si>
+    <t>3299-4876</t>
+  </si>
+  <si>
+    <t>av. hugo maia</t>
+  </si>
+  <si>
+    <t>11088-001</t>
+  </si>
+  <si>
+    <t>rua professor nelson espíndola lobato</t>
+  </si>
+  <si>
+    <t>3203-6662</t>
+  </si>
+  <si>
+    <t>11088-330</t>
+  </si>
+  <si>
+    <t>rua dr. Gaspar ricardo</t>
+  </si>
+  <si>
+    <t>marapé</t>
+  </si>
+  <si>
+    <t>11070-350</t>
+  </si>
+  <si>
+    <t>3237-6904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avenida prefeito dr. Antônio manuel de carvalho </t>
+  </si>
+  <si>
+    <t>morro nova cintra</t>
+  </si>
+  <si>
+    <t>3258-7518</t>
+  </si>
+  <si>
+    <t>praça fernandes pacheco</t>
+  </si>
+  <si>
+    <t>gonzaga</t>
+  </si>
+  <si>
+    <t>11060-410</t>
+  </si>
+  <si>
+    <t>3284-1814</t>
+  </si>
+  <si>
+    <t>rua dos portugueses</t>
+  </si>
+  <si>
+    <t>piratininga</t>
+  </si>
+  <si>
+    <t>11095-390</t>
+  </si>
+  <si>
+    <t>3219-9031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avenida santista </t>
+  </si>
+  <si>
+    <t>3258-6116</t>
+  </si>
+  <si>
+    <t>11080-000</t>
+  </si>
+  <si>
+    <t>11080-100</t>
+  </si>
+  <si>
+    <t>3286-1583</t>
+  </si>
+  <si>
+    <t>rua mato grosso</t>
+  </si>
+  <si>
+    <t>11055-011</t>
+  </si>
+  <si>
+    <t>3233-1327</t>
+  </si>
+  <si>
+    <t>rua são joão</t>
+  </si>
+  <si>
+    <t>morro são bento</t>
+  </si>
+  <si>
+    <t>11082-160</t>
+  </si>
+  <si>
+    <t>3291-3535</t>
+  </si>
+  <si>
+    <t>avenida professor francisco de domênico</t>
+  </si>
+  <si>
+    <t>11086-000</t>
+  </si>
+  <si>
+    <t>3223-2327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rua santa helena </t>
+  </si>
+  <si>
+    <t>11082-430</t>
+  </si>
+  <si>
+    <t>3203-3008</t>
+  </si>
+  <si>
+    <t>rua dr. Fausto felício brusarosco</t>
+  </si>
+  <si>
+    <t>castelo</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1410,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DA9257-B4D5-4E5C-82C2-6ED4623D6343}">
   <dimension ref="A1:AE784"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1042,7 +1422,7 @@
     <col min="2" max="2" width="9.88671875" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="61.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29" style="3" customWidth="1"/>
+    <col min="5" max="5" width="37.21875" style="3" customWidth="1"/>
     <col min="6" max="6" width="46.88671875" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" style="3" customWidth="1"/>
     <col min="8" max="8" width="26.44140625" style="3" customWidth="1"/>
@@ -2971,15 +3351,33 @@
       <c r="A42" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="25"/>
+      <c r="B42" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="22">
+        <v>48</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="25">
+        <v>56</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="J42" s="25" t="s">
+        <v>135</v>
+      </c>
       <c r="K42" s="35" t="s">
         <v>15</v>
       </c>
@@ -3012,15 +3410,33 @@
       <c r="A43" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="25"/>
+      <c r="B43" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="22">
+        <v>51</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" s="25">
+        <v>861</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I43" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="J43" s="25" t="s">
+        <v>140</v>
+      </c>
       <c r="K43" s="35" t="s">
         <v>15</v>
       </c>
@@ -3053,15 +3469,33 @@
       <c r="A44" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="25"/>
+      <c r="B44" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="22">
+        <v>52</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" s="25">
+        <v>73</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="J44" s="25" t="s">
+        <v>143</v>
+      </c>
       <c r="K44" s="35" t="s">
         <v>15</v>
       </c>
@@ -3094,15 +3528,33 @@
       <c r="A45" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
+      <c r="B45" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="22">
+        <v>55</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" s="25">
+        <v>739</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I45" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="J45" s="25" t="s">
+        <v>147</v>
+      </c>
       <c r="K45" s="35" t="s">
         <v>15</v>
       </c>
@@ -3135,15 +3587,33 @@
       <c r="A46" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="25"/>
+      <c r="B46" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="22">
+        <v>60</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="25">
+        <v>146</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="J46" s="25" t="s">
+        <v>151</v>
+      </c>
       <c r="K46" s="35" t="s">
         <v>15</v>
       </c>
@@ -3176,15 +3646,33 @@
       <c r="A47" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
+      <c r="B47" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="22">
+        <v>69</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" s="25">
+        <v>13</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="J47" s="25" t="s">
+        <v>155</v>
+      </c>
       <c r="K47" s="35" t="s">
         <v>15</v>
       </c>
@@ -3217,15 +3705,33 @@
       <c r="A48" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="25"/>
+      <c r="B48" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="22">
+        <v>71</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G48" s="25">
+        <v>835</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="J48" s="25" t="s">
+        <v>159</v>
+      </c>
       <c r="K48" s="35" t="s">
         <v>15</v>
       </c>
@@ -3258,15 +3764,33 @@
       <c r="A49" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="25"/>
+      <c r="B49" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="22">
+        <v>72</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G49" s="25">
+        <v>9</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I49" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="J49" s="25" t="s">
+        <v>163</v>
+      </c>
       <c r="K49" s="35" t="s">
         <v>15</v>
       </c>
@@ -3299,15 +3823,33 @@
       <c r="A50" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="25"/>
+      <c r="B50" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="22">
+        <v>73</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F50" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="J50" s="25" t="s">
+        <v>168</v>
+      </c>
       <c r="K50" s="35" t="s">
         <v>15</v>
       </c>
@@ -3340,15 +3882,33 @@
       <c r="A51" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="25"/>
+      <c r="B51" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="22">
+        <v>74</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" s="25">
+        <v>379</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I51" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="J51" s="25" t="s">
+        <v>172</v>
+      </c>
       <c r="K51" s="35" t="s">
         <v>15</v>
       </c>
@@ -3381,15 +3941,33 @@
       <c r="A52" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="25"/>
+      <c r="B52" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="22">
+        <v>75</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="G52" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I52" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="J52" s="25" t="s">
+        <v>175</v>
+      </c>
       <c r="K52" s="35" t="s">
         <v>15</v>
       </c>
@@ -3422,15 +4000,33 @@
       <c r="A53" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
+      <c r="B53" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="22">
+        <v>77</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G53" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="J53" s="25" t="s">
+        <v>178</v>
+      </c>
       <c r="K53" s="35" t="s">
         <v>15</v>
       </c>
@@ -3463,15 +4059,33 @@
       <c r="A54" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="25"/>
+      <c r="B54" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="22">
+        <v>80</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F54" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I54" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="J54" s="25" t="s">
+        <v>181</v>
+      </c>
       <c r="K54" s="35" t="s">
         <v>15</v>
       </c>
@@ -3504,15 +4118,33 @@
       <c r="A55" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="25"/>
+      <c r="B55" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="22">
+        <v>84</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F55" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I55" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="J55" s="25" t="s">
+        <v>197</v>
+      </c>
       <c r="K55" s="35" t="s">
         <v>15</v>
       </c>
@@ -3545,15 +4177,33 @@
       <c r="A56" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="25"/>
+      <c r="B56" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="22">
+        <v>86</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I56" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="J56" s="25" t="s">
+        <v>188</v>
+      </c>
       <c r="K56" s="35" t="s">
         <v>15</v>
       </c>
@@ -3586,15 +4236,33 @@
       <c r="A57" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="25"/>
+      <c r="B57" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" s="22">
+        <v>89</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I57" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="J57" s="25" t="s">
+        <v>192</v>
+      </c>
       <c r="K57" s="35" t="s">
         <v>15</v>
       </c>
@@ -3627,15 +4295,33 @@
       <c r="A58" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="25"/>
+      <c r="B58" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="22">
+        <v>91</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="G58" s="25">
+        <v>65</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I58" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>196</v>
+      </c>
       <c r="K58" s="35" t="s">
         <v>15</v>
       </c>
@@ -3668,15 +4354,33 @@
       <c r="A59" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="25"/>
+      <c r="B59" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="22">
+        <v>92</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="G59" s="25">
+        <v>83</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I59" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="J59" s="25" t="s">
+        <v>200</v>
+      </c>
       <c r="K59" s="35" t="s">
         <v>15</v>
       </c>
@@ -3709,15 +4413,33 @@
       <c r="A60" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="25"/>
+      <c r="B60" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="22">
+        <v>93</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I60" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="J60" s="25" t="s">
+        <v>204</v>
+      </c>
       <c r="K60" s="35" t="s">
         <v>15</v>
       </c>
@@ -3750,15 +4472,33 @@
       <c r="A61" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="25"/>
+      <c r="B61" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="22">
+        <v>119</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I61" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="J61" s="25" t="s">
+        <v>207</v>
+      </c>
       <c r="K61" s="35" t="s">
         <v>15</v>
       </c>
@@ -3791,15 +4531,33 @@
       <c r="A62" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="25"/>
+      <c r="B62" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="22">
+        <v>120</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I62" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="J62" s="25" t="s">
+        <v>210</v>
+      </c>
       <c r="K62" s="35" t="s">
         <v>15</v>
       </c>
@@ -3832,15 +4590,33 @@
       <c r="A63" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="25"/>
+      <c r="B63" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="22">
+        <v>125</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="I63" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="J63" s="25" t="s">
+        <v>211</v>
+      </c>
       <c r="K63" s="35" t="s">
         <v>15</v>
       </c>

--- a/core/utils/cadendereco.xlsx
+++ b/core/utils/cadendereco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ventura System\Ventura Back-End\project-beck_ventura\core\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113026DD-44FB-4F1F-A90F-1AC58B904CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB64E97-BD7A-40FE-93CB-B4DD1F74F40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9029D061-8B28-4E8B-B87C-E01B1A6C0E7F}"/>
   </bookViews>
@@ -1360,7 +1360,7 @@
     <col min="3" max="3" width="6.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" style="3" customWidth="1"/>
     <col min="9" max="9" width="26.5703125" style="3" customWidth="1"/>
